--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H2">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I2">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J2">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>0.4088903514672153</v>
+        <v>0.8712244577460001</v>
       </c>
       <c r="R2">
-        <v>0.4088903514672153</v>
+        <v>7.841020119714001</v>
       </c>
       <c r="S2">
-        <v>0.0004066643340983804</v>
+        <v>0.0005977792562722802</v>
       </c>
       <c r="T2">
-        <v>0.0004066643340983804</v>
+        <v>0.0005977792562722803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H3">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I3">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J3">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>36.28299748318486</v>
+        <v>71.2478208990089</v>
       </c>
       <c r="R3">
-        <v>36.28299748318486</v>
+        <v>641.23038809108</v>
       </c>
       <c r="S3">
-        <v>0.03608547122143486</v>
+        <v>0.04888575958739572</v>
       </c>
       <c r="T3">
-        <v>0.03608547122143486</v>
+        <v>0.04888575958739572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H4">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I4">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J4">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>30.97922476376716</v>
+        <v>66.15175905148533</v>
       </c>
       <c r="R4">
-        <v>30.97922476376716</v>
+        <v>595.3658314633681</v>
       </c>
       <c r="S4">
-        <v>0.03081057247801442</v>
+        <v>0.04538916346449588</v>
       </c>
       <c r="T4">
-        <v>0.03081057247801442</v>
+        <v>0.04538916346449589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H5">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I5">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J5">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>31.81971917505518</v>
+        <v>62.61634064139733</v>
       </c>
       <c r="R5">
-        <v>31.81971917505518</v>
+        <v>563.547065772576</v>
       </c>
       <c r="S5">
-        <v>0.03164649120012019</v>
+        <v>0.04296338240543168</v>
       </c>
       <c r="T5">
-        <v>0.03164649120012019</v>
+        <v>0.04296338240543168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H6">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I6">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J6">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>13.41603732443613</v>
+        <v>26.69210528026777</v>
       </c>
       <c r="R6">
-        <v>13.41603732443613</v>
+        <v>240.22894752241</v>
       </c>
       <c r="S6">
-        <v>0.01334299981695283</v>
+        <v>0.01831443860524832</v>
       </c>
       <c r="T6">
-        <v>0.01334299981695283</v>
+        <v>0.01831443860524832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.254732830627617</v>
+        <v>0.4981126666666666</v>
       </c>
       <c r="H7">
-        <v>0.254732830627617</v>
+        <v>1.494338</v>
       </c>
       <c r="I7">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="J7">
-        <v>0.1177859218507104</v>
+        <v>0.16401224128229</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>5.523794584967767</v>
+        <v>11.45794354318578</v>
       </c>
       <c r="R7">
-        <v>5.523794584967767</v>
+        <v>103.121491888672</v>
       </c>
       <c r="S7">
-        <v>0.005493722800089761</v>
+        <v>0.00786171796344616</v>
       </c>
       <c r="T7">
-        <v>0.005493722800089761</v>
+        <v>0.007861717963446162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H8">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I8">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J8">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>0.537280374689643</v>
+        <v>0.4999376605170001</v>
       </c>
       <c r="R8">
-        <v>0.537280374689643</v>
+        <v>4.499438944653001</v>
       </c>
       <c r="S8">
-        <v>0.0005343553962896838</v>
+        <v>0.0003430256809588838</v>
       </c>
       <c r="T8">
-        <v>0.0005343553962896838</v>
+        <v>0.0003430256809588838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H9">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I9">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J9">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>47.67572140716548</v>
+        <v>40.88437667296223</v>
       </c>
       <c r="R9">
-        <v>47.67572140716548</v>
+        <v>367.95939005666</v>
       </c>
       <c r="S9">
-        <v>0.04741617264661568</v>
+        <v>0.0280522798268875</v>
       </c>
       <c r="T9">
-        <v>0.04741617264661568</v>
+        <v>0.0280522798268875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H10">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I10">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J10">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>40.706584121993</v>
+        <v>37.96008636493733</v>
       </c>
       <c r="R10">
-        <v>40.706584121993</v>
+        <v>341.640777284436</v>
       </c>
       <c r="S10">
-        <v>0.04048497565665174</v>
+        <v>0.02604581631462807</v>
       </c>
       <c r="T10">
-        <v>0.04048497565665174</v>
+        <v>0.02604581631462807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H11">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I11">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J11">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>41.81099059820595</v>
+        <v>35.93134532906133</v>
       </c>
       <c r="R11">
-        <v>41.81099059820595</v>
+        <v>323.382107961552</v>
       </c>
       <c r="S11">
-        <v>0.04158336969459246</v>
+        <v>0.02465382221160143</v>
       </c>
       <c r="T11">
-        <v>0.04158336969459246</v>
+        <v>0.02465382221160143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H12">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I12">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J12">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>17.62862228139718</v>
+        <v>15.31682053854944</v>
       </c>
       <c r="R12">
-        <v>17.62862228139718</v>
+        <v>137.851384846945</v>
       </c>
       <c r="S12">
-        <v>0.0175326512729197</v>
+        <v>0.01050943589632268</v>
       </c>
       <c r="T12">
-        <v>0.0175326512729197</v>
+        <v>0.01050943589632268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.334717975599708</v>
+        <v>0.2858336666666667</v>
       </c>
       <c r="H13">
-        <v>0.334717975599708</v>
+        <v>0.857501</v>
       </c>
       <c r="I13">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="J13">
-        <v>0.1547702556395215</v>
+        <v>0.09411569598832725</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>7.258245183997848</v>
+        <v>6.574950276460444</v>
       </c>
       <c r="R13">
-        <v>7.258245183997848</v>
+        <v>59.17455248814399</v>
       </c>
       <c r="S13">
-        <v>0.007218730972452219</v>
+        <v>0.004511316057928692</v>
       </c>
       <c r="T13">
-        <v>0.007218730972452219</v>
+        <v>0.004511316057928693</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H14">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I14">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J14">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>2.058034579208283</v>
+        <v>0.601843784964</v>
       </c>
       <c r="R14">
-        <v>2.058034579208283</v>
+        <v>5.416594064676</v>
       </c>
       <c r="S14">
-        <v>0.002046830546874085</v>
+        <v>0.0004129472341704652</v>
       </c>
       <c r="T14">
-        <v>0.002046830546874085</v>
+        <v>0.0004129472341704653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H15">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I15">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J15">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>182.6202628400947</v>
+        <v>49.21815247385778</v>
       </c>
       <c r="R15">
-        <v>182.6202628400947</v>
+        <v>442.96337226472</v>
       </c>
       <c r="S15">
-        <v>0.1816260699580065</v>
+        <v>0.03377039099319692</v>
       </c>
       <c r="T15">
-        <v>0.1816260699580065</v>
+        <v>0.03377039099319692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H16">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I16">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J16">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>155.9252146012311</v>
+        <v>45.69778166303466</v>
       </c>
       <c r="R16">
-        <v>155.9252146012311</v>
+        <v>411.280034967312</v>
       </c>
       <c r="S16">
-        <v>0.1550763507562023</v>
+        <v>0.03135493464737655</v>
       </c>
       <c r="T16">
-        <v>0.1550763507562023</v>
+        <v>0.03135493464737656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H17">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I17">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J17">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>160.1556068221656</v>
+        <v>43.25550679524266</v>
       </c>
       <c r="R17">
-        <v>160.1556068221656</v>
+        <v>389.299561157184</v>
       </c>
       <c r="S17">
-        <v>0.1592837125326007</v>
+        <v>0.02967919971925219</v>
       </c>
       <c r="T17">
-        <v>0.1592837125326007</v>
+        <v>0.02967919971925219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H18">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I18">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J18">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>67.52585046471154</v>
+        <v>18.43896544421555</v>
       </c>
       <c r="R18">
-        <v>67.52585046471154</v>
+        <v>165.95068899794</v>
       </c>
       <c r="S18">
-        <v>0.06715823671339549</v>
+        <v>0.01265165475059123</v>
       </c>
       <c r="T18">
-        <v>0.06715823671339549</v>
+        <v>0.01265165475059123</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.28212605655792</v>
+        <v>0.3440973333333333</v>
       </c>
       <c r="H19">
-        <v>1.28212605655792</v>
+        <v>1.032292</v>
       </c>
       <c r="I19">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="J19">
-        <v>0.5928423090514592</v>
+        <v>0.1133000195255543</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>27.80246641554375</v>
+        <v>7.915172776227555</v>
       </c>
       <c r="R19">
-        <v>27.80246641554375</v>
+        <v>71.23655498604801</v>
       </c>
       <c r="S19">
-        <v>0.02765110854438006</v>
+        <v>0.005430892180966932</v>
       </c>
       <c r="T19">
-        <v>0.02765110854438006</v>
+        <v>0.005430892180966934</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.291099513348076</v>
+        <v>0.136227</v>
       </c>
       <c r="H20">
-        <v>0.291099513348076</v>
+        <v>0.408681</v>
       </c>
       <c r="I20">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317939</v>
       </c>
       <c r="J20">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317938</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>0.4672651814513526</v>
+        <v>0.2382679705770001</v>
       </c>
       <c r="R20">
-        <v>0.4672651814513526</v>
+        <v>2.144411735193001</v>
       </c>
       <c r="S20">
-        <v>0.0004647213688961525</v>
+        <v>0.0001634844487877654</v>
       </c>
       <c r="T20">
-        <v>0.0004647213688961525</v>
+        <v>0.0001634844487877654</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.291099513348076</v>
+        <v>0.136227</v>
       </c>
       <c r="H21">
-        <v>0.291099513348076</v>
+        <v>0.408681</v>
       </c>
       <c r="I21">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317939</v>
       </c>
       <c r="J21">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317938</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>41.46290403220408</v>
+        <v>19.48530432394001</v>
       </c>
       <c r="R21">
-        <v>41.46290403220408</v>
+        <v>175.36773891546</v>
       </c>
       <c r="S21">
-        <v>0.04123717812743075</v>
+        <v>0.01336958647503876</v>
       </c>
       <c r="T21">
-        <v>0.04123717812743075</v>
+        <v>0.01336958647503876</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.291099513348076</v>
+        <v>0.136227</v>
       </c>
       <c r="H22">
-        <v>0.291099513348076</v>
+        <v>0.408681</v>
       </c>
       <c r="I22">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317939</v>
       </c>
       <c r="J22">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317938</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>35.40194340248339</v>
+        <v>18.091601124324</v>
       </c>
       <c r="R22">
-        <v>35.40194340248339</v>
+        <v>162.824410118916</v>
       </c>
       <c r="S22">
-        <v>0.03520921363857073</v>
+        <v>0.01241331526992798</v>
       </c>
       <c r="T22">
-        <v>0.03520921363857073</v>
+        <v>0.01241331526992798</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.291099513348076</v>
+        <v>0.136227</v>
       </c>
       <c r="H23">
-        <v>0.291099513348076</v>
+        <v>0.408681</v>
       </c>
       <c r="I23">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317939</v>
       </c>
       <c r="J23">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317938</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>36.362430174035</v>
+        <v>17.124712554768</v>
       </c>
       <c r="R23">
-        <v>36.362430174035</v>
+        <v>154.122412992912</v>
       </c>
       <c r="S23">
-        <v>0.03616447147716186</v>
+        <v>0.0117498973356993</v>
       </c>
       <c r="T23">
-        <v>0.03616447147716186</v>
+        <v>0.0117498973356993</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.291099513348076</v>
+        <v>0.136227</v>
       </c>
       <c r="H24">
-        <v>0.291099513348076</v>
+        <v>0.408681</v>
       </c>
       <c r="I24">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317939</v>
       </c>
       <c r="J24">
-        <v>0.134601513458309</v>
+        <v>0.04485510425317938</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>15.33136473449753</v>
+        <v>7.299925638005001</v>
       </c>
       <c r="R24">
-        <v>15.33136473449753</v>
+        <v>65.69933074204501</v>
       </c>
       <c r="S24">
-        <v>0.01524790009889419</v>
+        <v>0.00500874841142465</v>
       </c>
       <c r="T24">
-        <v>0.01524790009889419</v>
+        <v>0.00500874841142465</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.136227</v>
+      </c>
+      <c r="H25">
+        <v>0.408681</v>
+      </c>
+      <c r="I25">
+        <v>0.04485510425317939</v>
+      </c>
+      <c r="J25">
+        <v>0.04485510425317938</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>3.133590810896</v>
+      </c>
+      <c r="R25">
+        <v>28.202317298064</v>
+      </c>
+      <c r="S25">
+        <v>0.002150072312300925</v>
+      </c>
+      <c r="T25">
+        <v>0.002150072312300926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.39157</v>
+      </c>
+      <c r="I26">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J26">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>2.560359966690001</v>
+      </c>
+      <c r="R26">
+        <v>23.04323970021</v>
+      </c>
+      <c r="S26">
+        <v>0.001756757472852633</v>
+      </c>
+      <c r="T26">
+        <v>0.001756757472852633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H27">
+        <v>4.39157</v>
+      </c>
+      <c r="I27">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J27">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>209.3835483173556</v>
+      </c>
+      <c r="R27">
+        <v>1884.4519348562</v>
+      </c>
+      <c r="S27">
+        <v>0.1436657805872697</v>
+      </c>
+      <c r="T27">
+        <v>0.1436657805872697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H28">
+        <v>4.39157</v>
+      </c>
+      <c r="I28">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J28">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>194.4072094116133</v>
+      </c>
+      <c r="R28">
+        <v>1749.66488470452</v>
+      </c>
+      <c r="S28">
+        <v>0.1333899617059703</v>
+      </c>
+      <c r="T28">
+        <v>0.1333899617059703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H29">
+        <v>4.39157</v>
+      </c>
+      <c r="I29">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J29">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>184.0172993462933</v>
+      </c>
+      <c r="R29">
+        <v>1656.15569411664</v>
+      </c>
+      <c r="S29">
+        <v>0.1262610609314771</v>
+      </c>
+      <c r="T29">
+        <v>0.1262610609314771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H30">
+        <v>4.39157</v>
+      </c>
+      <c r="I30">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J30">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>78.4429284309611</v>
+      </c>
+      <c r="R30">
+        <v>705.98635587865</v>
+      </c>
+      <c r="S30">
+        <v>0.05382258842755144</v>
+      </c>
+      <c r="T30">
+        <v>0.05382258842755144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.463856666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.39157</v>
+      </c>
+      <c r="I31">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="J31">
+        <v>0.4820002157798747</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>33.67267721623111</v>
+      </c>
+      <c r="R31">
+        <v>303.05409494608</v>
+      </c>
+      <c r="S31">
+        <v>0.02310406665475365</v>
+      </c>
+      <c r="T31">
+        <v>0.02310406665475365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H32">
+        <v>0.926755</v>
+      </c>
+      <c r="I32">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J32">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>0.5403139198350001</v>
+      </c>
+      <c r="R32">
+        <v>4.862825278515</v>
+      </c>
+      <c r="S32">
+        <v>0.0003707293227145512</v>
+      </c>
+      <c r="T32">
+        <v>0.0003707293227145513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H33">
+        <v>0.926755</v>
+      </c>
+      <c r="I33">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J33">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>44.18630474314445</v>
+      </c>
+      <c r="R33">
+        <v>397.6767426883</v>
+      </c>
+      <c r="S33">
+        <v>0.03031785454590389</v>
+      </c>
+      <c r="T33">
+        <v>0.03031785454590389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H34">
+        <v>0.926755</v>
+      </c>
+      <c r="I34">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J34">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>41.02584118168667</v>
+      </c>
+      <c r="R34">
+        <v>369.23257063518</v>
+      </c>
+      <c r="S34">
+        <v>0.02814934384760267</v>
+      </c>
+      <c r="T34">
+        <v>0.02814934384760268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.291099513348076</v>
-      </c>
-      <c r="H25">
-        <v>0.291099513348076</v>
-      </c>
-      <c r="I25">
-        <v>0.134601513458309</v>
-      </c>
-      <c r="J25">
-        <v>0.134601513458309</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q25">
-        <v>6.31239370110672</v>
-      </c>
-      <c r="R25">
-        <v>6.31239370110672</v>
-      </c>
-      <c r="S25">
-        <v>0.006278028747355264</v>
-      </c>
-      <c r="T25">
-        <v>0.006278028747355264</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H35">
+        <v>0.926755</v>
+      </c>
+      <c r="I35">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J35">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>38.83325376930667</v>
+      </c>
+      <c r="R35">
+        <v>349.49928392376</v>
+      </c>
+      <c r="S35">
+        <v>0.02664492869829037</v>
+      </c>
+      <c r="T35">
+        <v>0.02664492869829037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H36">
+        <v>0.926755</v>
+      </c>
+      <c r="I36">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J36">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>16.55384660566389</v>
+      </c>
+      <c r="R36">
+        <v>148.984619450975</v>
+      </c>
+      <c r="S36">
+        <v>0.01135820513806575</v>
+      </c>
+      <c r="T36">
+        <v>0.01135820513806576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3089183333333334</v>
+      </c>
+      <c r="H37">
+        <v>0.926755</v>
+      </c>
+      <c r="I37">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="J37">
+        <v>0.1017167231707744</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>7.105960276968889</v>
+      </c>
+      <c r="R37">
+        <v>63.95364249272</v>
+      </c>
+      <c r="S37">
+        <v>0.004875661618197186</v>
+      </c>
+      <c r="T37">
+        <v>0.004875661618197187</v>
       </c>
     </row>
   </sheetData>
